--- a/htdocs/App/Controllers/Traspasos/Salidas/Salida-7842DRV.xlsx
+++ b/htdocs/App/Controllers/Traspasos/Salidas/Salida-7842DRV.xlsx
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>Paco Llamas</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -46,13 +43,13 @@
     <t>7842DRV</t>
   </si>
   <si>
-    <t>Palma de Mallorca a ___ de  __________ de 2017</t>
+    <t>Palma de Mallorca a ___ de  __________ de 2018</t>
   </si>
   <si>
     <t>Firma</t>
   </si>
   <si>
-    <t>27-11-2017</t>
+    <t>08-01-2018</t>
   </si>
 </sst>
 </file>
@@ -116,6 +113,15 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
@@ -130,15 +136,6 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
@@ -210,17 +207,17 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="14" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,7 +556,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -590,9 +587,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
@@ -679,7 +674,7 @@
     <row r="11" spans="1:10" customHeight="1" ht="15.75">
       <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -701,7 +696,7 @@
     <row r="13" spans="1:10" customHeight="1" ht="15.75">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -776,7 +771,7 @@
     </row>
     <row r="20" spans="1:10" customHeight="1" ht="23.25">
       <c r="A20" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -785,19 +780,19 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" customHeight="1" ht="23.25">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -806,7 +801,7 @@
     </row>
     <row r="22" spans="1:10" customHeight="1" ht="23.25">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
@@ -820,17 +815,17 @@
     </row>
     <row r="23" spans="1:10" customHeight="1" ht="23.25">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="13"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
@@ -860,7 +855,7 @@
     </row>
     <row r="26" spans="1:10" customHeight="1" ht="23.25">
       <c r="A26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -913,7 +908,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1011,16 +1006,16 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="13"/>
+      <c r="G38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="14"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
